--- a/tests/expected_results/result_test_write_results_dofinance.xlsx
+++ b/tests/expected_results/result_test_write_results_dofinance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -33,10 +33,7 @@
     <t xml:space="preserve">Datum</t>
   </si>
   <si>
-    <t xml:space="preserve">Einzahlungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auszahlungen</t>
+    <t xml:space="preserve">Ein-/Auszahlungen</t>
   </si>
   <si>
     <t xml:space="preserve">Investitionen</t>
@@ -211,26 +208,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D183" activeCellId="0" sqref="D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -255,16 +251,13 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>43123</v>
@@ -273,10 +266,10 @@
         <v>1050</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>-1050</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-1050</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
@@ -284,11 +277,8 @@
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="n">
@@ -298,10 +288,10 @@
         <v>10.5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -309,11 +299,8 @@
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="n">
@@ -323,22 +310,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="n">
@@ -348,10 +332,10 @@
         <v>1000</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
@@ -359,11 +343,8 @@
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="n">
@@ -373,22 +354,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="n">
@@ -398,22 +376,19 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-30</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="n">
@@ -423,22 +398,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="n">
@@ -448,22 +420,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="n">
@@ -473,22 +442,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="n">
@@ -498,22 +464,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="n">
@@ -523,22 +486,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="n">
@@ -548,22 +508,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="n">
@@ -573,22 +530,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="n">
@@ -598,22 +552,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="n">
@@ -623,22 +574,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="n">
@@ -648,22 +596,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="n">
@@ -673,22 +618,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="n">
@@ -698,22 +640,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="n">
@@ -723,22 +662,19 @@
         <v>1000</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0</v>
+        <v>-1020</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>-1020</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="n">
@@ -748,22 +684,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="n">
@@ -773,22 +706,19 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0</v>
+        <v>-740</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-740</v>
+        <v>730</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="n">
@@ -798,22 +728,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="n">
@@ -823,22 +750,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="n">
@@ -848,22 +772,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="n">
@@ -873,22 +794,19 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="n">
@@ -898,22 +816,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0</v>
+        <v>-1580</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>-1580</v>
+        <v>1580</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1580</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="n">
@@ -923,22 +838,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="n">
@@ -948,22 +860,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="n">
@@ -973,22 +882,19 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="n">
@@ -998,22 +904,19 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="n">
@@ -1023,22 +926,19 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="n">
@@ -1048,22 +948,19 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="n">
@@ -1073,22 +970,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="n">
@@ -1098,22 +992,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="n">
@@ -1123,22 +1014,19 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="n">
@@ -1151,19 +1039,16 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="n">
@@ -1173,22 +1058,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>-50</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="n">
@@ -1198,22 +1080,19 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="n">
@@ -1223,22 +1102,19 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="n">
@@ -1248,22 +1124,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="n">
@@ -1273,22 +1146,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="n">
@@ -1298,22 +1168,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="n">
@@ -1323,22 +1190,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I44" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="n">
@@ -1348,22 +1212,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="n">
@@ -1373,22 +1234,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>-170</v>
+        <v>170</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="n">
@@ -1398,22 +1256,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I47" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="n">
@@ -1423,22 +1278,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>-130</v>
+        <v>130</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="n">
@@ -1448,22 +1300,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>-350</v>
+        <v>350</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="n">
@@ -1473,22 +1322,19 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>-270</v>
+        <v>270</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I50" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="n">
@@ -1498,22 +1344,19 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="n">
@@ -1523,22 +1366,19 @@
         <v>0</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="n">
@@ -1548,22 +1388,19 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0</v>
+        <v>-410</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-410</v>
+        <v>410</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="n">
@@ -1573,22 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-170</v>
+        <v>170</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I54" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="n">
@@ -1598,22 +1432,19 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I55" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="n">
@@ -1623,22 +1454,19 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I56" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="n">
@@ -1648,22 +1476,19 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="n">
@@ -1673,22 +1498,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I58" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="n">
@@ -1698,22 +1520,19 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I59" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="n">
@@ -1723,22 +1542,19 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>-10</v>
+        <v>210</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I60" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="n">
@@ -1748,22 +1564,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>-280</v>
+        <v>80</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I61" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3" t="n">
@@ -1773,22 +1586,19 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I62" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="n">
@@ -1798,22 +1608,19 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I63" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="n">
@@ -1823,22 +1630,19 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I64" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3" t="n">
@@ -1848,22 +1652,19 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I65" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3" t="n">
@@ -1873,22 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I66" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3" t="n">
@@ -1898,22 +1696,19 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I67" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3" t="n">
@@ -1923,22 +1718,19 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I68" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="n">
@@ -1948,22 +1740,19 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>-70</v>
+        <v>120</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I69" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="n">
@@ -1973,22 +1762,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>-120</v>
+        <v>70</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I70" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="n">
@@ -1998,22 +1784,19 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I71" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="n">
@@ -2023,22 +1806,19 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I72" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="n">
@@ -2048,22 +1828,19 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I73" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="n">
@@ -2073,22 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I74" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="n">
@@ -2098,22 +1872,19 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I75" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3" t="n">
@@ -2123,22 +1894,19 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I76" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="3" t="n">
@@ -2148,22 +1916,19 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I77" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="n">
@@ -2173,22 +1938,19 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>-170</v>
+        <v>170</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I78" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="n">
@@ -2198,22 +1960,19 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I79" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3" t="n">
@@ -2223,22 +1982,19 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H80" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I80" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="n">
@@ -2248,22 +2004,19 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I81" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3" t="n">
@@ -2273,22 +2026,19 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H82" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I82" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3" t="n">
@@ -2298,22 +2048,19 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>0</v>
+        <v>-230</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>-230</v>
+        <v>230</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I83" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="n">
@@ -2323,22 +2070,19 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>0</v>
+        <v>-220</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I84" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="n">
@@ -2348,22 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>-190</v>
+        <v>190</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I85" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3" t="n">
@@ -2373,22 +2114,19 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I86" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3" t="n">
@@ -2398,22 +2136,19 @@
         <v>0</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>-130</v>
+        <v>130</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I87" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3" t="n">
@@ -2423,22 +2158,19 @@
         <v>0</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>0</v>
+        <v>-230</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>-230</v>
+        <v>230</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I88" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="n">
@@ -2448,22 +2180,19 @@
         <v>0</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H89" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I89" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3" t="n">
@@ -2473,22 +2202,19 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I90" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="n">
@@ -2498,22 +2224,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H91" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I91" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3" t="n">
@@ -2523,22 +2246,19 @@
         <v>0</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H92" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I92" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3" t="n">
@@ -2548,22 +2268,19 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H93" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I93" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3" t="n">
@@ -2573,22 +2290,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H94" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I94" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="3" t="n">
@@ -2598,22 +2312,19 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H95" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I95" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3" t="n">
@@ -2623,22 +2334,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I96" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="3" t="n">
@@ -2648,22 +2356,19 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H97" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I97" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="3" t="n">
@@ -2673,22 +2378,19 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I98" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="n">
@@ -2698,22 +2400,19 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I99" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="n">
@@ -2723,22 +2422,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I100" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="n">
@@ -2748,22 +2444,19 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I101" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3" t="n">
@@ -2773,22 +2466,19 @@
         <v>0</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I102" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3" t="n">
@@ -2798,22 +2488,19 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I103" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3" t="n">
@@ -2823,22 +2510,19 @@
         <v>0</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>-130</v>
+        <v>130</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I104" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3" t="n">
@@ -2848,22 +2532,19 @@
         <v>0</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I105" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="n">
@@ -2873,22 +2554,19 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I106" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3" t="n">
@@ -2898,22 +2576,19 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>-170</v>
+        <v>170</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I107" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3" t="n">
@@ -2923,22 +2598,19 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>-190</v>
+        <v>190</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I108" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3" t="n">
@@ -2948,22 +2620,19 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H109" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I109" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3" t="n">
@@ -2973,22 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H110" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I110" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="n">
@@ -2998,22 +2664,19 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F111" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H111" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I111" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3" t="n">
@@ -3023,22 +2686,19 @@
         <v>0</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F112" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I112" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3" t="n">
@@ -3048,22 +2708,19 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G113" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H113" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I113" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="n">
@@ -3073,22 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="F114" s="1" t="n">
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="G114" s="1" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I114" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3" t="n">
@@ -3098,22 +2752,19 @@
         <v>0</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="F115" s="1" t="n">
-        <v>-170</v>
+        <v>170</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H115" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I115" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3" t="n">
@@ -3123,22 +2774,19 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F116" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H116" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I116" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3" t="n">
@@ -3148,22 +2796,19 @@
         <v>0</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="F117" s="1" t="n">
-        <v>-170</v>
+        <v>170</v>
       </c>
       <c r="G117" s="1" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H117" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I117" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="n">
@@ -3176,19 +2821,16 @@
         <v>0</v>
       </c>
       <c r="F118" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H118" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I118" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3" t="n">
@@ -3198,22 +2840,19 @@
         <v>0</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F119" s="1" t="n">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="G119" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H119" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I119" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3" t="n">
@@ -3223,22 +2862,19 @@
         <v>0</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F120" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H120" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I120" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="3" t="n">
@@ -3248,22 +2884,19 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F121" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H121" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I121" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3" t="n">
@@ -3273,22 +2906,19 @@
         <v>0</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F122" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G122" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H122" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I122" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3" t="n">
@@ -3298,22 +2928,19 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="F123" s="1" t="n">
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="G123" s="1" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H123" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I123" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3" t="n">
@@ -3323,22 +2950,19 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F124" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G124" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I124" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3" t="n">
@@ -3348,22 +2972,19 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F125" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H125" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I125" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3" t="n">
@@ -3373,22 +2994,19 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F126" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H126" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I126" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3" t="n">
@@ -3398,22 +3016,19 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F127" s="1" t="n">
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="G127" s="1" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H127" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I127" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3" t="n">
@@ -3423,22 +3038,19 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F128" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G128" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H128" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I128" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="3" t="n">
@@ -3448,22 +3060,19 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F129" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G129" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H129" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I129" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="3" t="n">
@@ -3473,22 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F130" s="1" t="n">
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="G130" s="1" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H130" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I130" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="3" t="n">
@@ -3498,22 +3104,19 @@
         <v>0</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="F131" s="1" t="n">
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H131" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I131" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="3" t="n">
@@ -3523,22 +3126,19 @@
         <v>0</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F132" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H132" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I132" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="3" t="n">
@@ -3548,22 +3148,19 @@
         <v>0</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F133" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G133" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H133" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I133" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="3" t="n">
@@ -3573,22 +3170,19 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="F134" s="1" t="n">
-        <v>-130</v>
+        <v>130</v>
       </c>
       <c r="G134" s="1" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H134" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I134" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3" t="n">
@@ -3598,22 +3192,19 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F135" s="1" t="n">
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H135" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I135" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3" t="n">
@@ -3623,22 +3214,19 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H136" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I136" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3" t="n">
@@ -3648,22 +3236,19 @@
         <v>0</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>-150</v>
+        <v>150</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H137" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I137" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="n">
@@ -3673,22 +3258,19 @@
         <v>0</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>-210</v>
+        <v>210</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H138" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I138" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3" t="n">
@@ -3698,22 +3280,19 @@
         <v>0</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H139" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I139" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="3" t="n">
@@ -3723,22 +3302,19 @@
         <v>0</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H140" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I140" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="n">
@@ -3748,22 +3324,19 @@
         <v>0</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H141" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I141" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="n">
@@ -3773,22 +3346,19 @@
         <v>0</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H142" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I142" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="n">
@@ -3798,22 +3368,19 @@
         <v>0</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>-190</v>
+        <v>190</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H143" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I143" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="n">
@@ -3823,22 +3390,19 @@
         <v>0</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="F144" s="1" t="n">
-        <v>-130</v>
+        <v>130</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H144" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I144" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="3" t="n">
@@ -3848,22 +3412,19 @@
         <v>0</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H145" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I145" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="n">
@@ -3876,19 +3437,16 @@
         <v>0</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H146" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I146" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="n">
@@ -3898,22 +3456,19 @@
         <v>0</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>-50</v>
+        <v>30</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H147" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I147" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="3" t="n">
@@ -3923,22 +3478,19 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>-90</v>
+        <v>80</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H148" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I148" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="3" t="n">
@@ -3948,22 +3500,19 @@
         <v>0</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H149" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I149" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="3" t="n">
@@ -3973,22 +3522,19 @@
         <v>0</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H150" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I150" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="3" t="n">
@@ -3998,22 +3544,19 @@
         <v>0</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H151" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I151" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="3" t="n">
@@ -4026,19 +3569,16 @@
         <v>0</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I152" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="3" t="n">
@@ -4051,19 +3591,16 @@
         <v>0</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H153" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I153" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="3" t="n">
@@ -4076,19 +3613,16 @@
         <v>0</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H154" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I154" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3" t="n">
@@ -4101,19 +3635,16 @@
         <v>0</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H155" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I155" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="3" t="n">
@@ -4123,22 +3654,19 @@
         <v>0</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>-100</v>
+        <v>60</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H156" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I156" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3" t="n">
@@ -4148,22 +3676,19 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H157" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I157" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="3" t="n">
@@ -4173,22 +3698,19 @@
         <v>0</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F158" s="1" t="n">
-        <v>-300</v>
+        <v>70</v>
       </c>
       <c r="G158" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I158" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="n">
@@ -4198,22 +3720,19 @@
         <v>0</v>
       </c>
       <c r="E159" s="1" t="n">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="F159" s="1" t="n">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="G159" s="1" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H159" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I159" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="3" t="n">
@@ -4223,22 +3742,19 @@
         <v>0</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F160" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H160" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I160" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="n">
@@ -4248,22 +3764,19 @@
         <v>0</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F161" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G161" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H161" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I161" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="n">
@@ -4273,22 +3786,19 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F162" s="1" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="G162" s="1" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H162" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I162" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="n">
@@ -4298,22 +3808,19 @@
         <v>0</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F163" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G163" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I163" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="n">
@@ -4323,22 +3830,19 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="F164" s="1" t="n">
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="G164" s="1" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H164" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I164" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3" t="n">
@@ -4348,22 +3852,19 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="F165" s="1" t="n">
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="G165" s="1" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H165" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I165" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3" t="n">
@@ -4373,22 +3874,19 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F166" s="1" t="n">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="G166" s="1" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H166" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I166" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="3" t="n">
@@ -4398,22 +3896,19 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F167" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G167" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H167" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I167" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3" t="n">
@@ -4423,22 +3918,19 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F168" s="1" t="n">
-        <v>-20</v>
+        <v>1070</v>
       </c>
       <c r="G168" s="1" t="n">
-        <v>1070</v>
+        <v>62.39</v>
       </c>
       <c r="H168" s="1" t="n">
         <v>62.39</v>
       </c>
-      <c r="I168" s="1" t="n">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3" t="n">
@@ -4448,47 +3940,41 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F169" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G169" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H169" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I169" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>0</v>
+        <v>-1112.89</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>-1112.89</v>
+        <v>-120</v>
       </c>
       <c r="F170" s="1" t="n">
-        <v>-120</v>
+        <v>130</v>
       </c>
       <c r="G170" s="1" t="n">
-        <v>130</v>
+        <v>0.59</v>
       </c>
       <c r="H170" s="1" t="n">
         <v>0.59</v>
       </c>
-      <c r="I170" s="1" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3" t="n">
@@ -4498,22 +3984,19 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F171" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G171" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H171" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I171" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3" t="n">
@@ -4523,22 +4006,19 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F172" s="1" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G172" s="1" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H172" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I172" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3" t="n">
@@ -4548,22 +4028,19 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F173" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G173" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H173" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I173" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="3" t="n">
@@ -4573,22 +4050,19 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F174" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G174" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H174" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I174" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3" t="n">
@@ -4601,19 +4075,16 @@
         <v>0</v>
       </c>
       <c r="F175" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G175" s="1" t="n">
-        <v>1000</v>
+        <v>59.39</v>
       </c>
       <c r="H175" s="1" t="n">
         <v>59.39</v>
       </c>
-      <c r="I175" s="1" t="n">
-        <v>59.39</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="3" t="n">
@@ -4623,22 +4094,19 @@
         <v>0</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F176" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G176" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H176" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I176" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="3" t="n">
@@ -4648,47 +4116,41 @@
         <v>0</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F177" s="1" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="G177" s="1" t="n">
-        <v>20</v>
+        <v>0.6</v>
       </c>
       <c r="H177" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="I177" s="1" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="3" t="n">
         <v>43314</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>0</v>
+        <v>-1080.58</v>
       </c>
       <c r="E178" s="1" t="n">
-        <v>-1080.58</v>
+        <v>-60</v>
       </c>
       <c r="F178" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G178" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H178" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I178" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="3" t="n">
@@ -4698,22 +4160,19 @@
         <v>0</v>
       </c>
       <c r="E179" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F179" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G179" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H179" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I179" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="3" t="n">
@@ -4723,22 +4182,19 @@
         <v>0</v>
       </c>
       <c r="E180" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F180" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G180" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H180" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I180" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="3" t="n">
@@ -4748,22 +4204,19 @@
         <v>0</v>
       </c>
       <c r="E181" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F181" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G181" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H181" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I181" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="3" t="n">
@@ -4773,22 +4226,19 @@
         <v>0</v>
       </c>
       <c r="E182" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F182" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G182" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H182" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I182" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="3" t="n">
@@ -4798,22 +4248,19 @@
         <v>0</v>
       </c>
       <c r="E183" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F183" s="1" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="G183" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H183" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I183" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="3" t="n">
@@ -4823,22 +4270,19 @@
         <v>0</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F184" s="1" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G184" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H184" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I184" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="3" t="n">
@@ -4848,22 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F185" s="1" t="n">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G185" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H185" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I185" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="3" t="n">
@@ -4873,22 +4314,19 @@
         <v>0</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F186" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G186" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H186" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I186" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="3" t="n">
@@ -4898,22 +4336,19 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F187" s="1" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G187" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H187" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I187" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="3" t="n">
@@ -4923,22 +4358,19 @@
         <v>0</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F188" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="G188" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H188" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I188" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="n">
@@ -4948,22 +4380,19 @@
         <v>0</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F189" s="1" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G189" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H189" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I189" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="3" t="n">
@@ -4973,22 +4402,19 @@
         <v>0</v>
       </c>
       <c r="E190" s="1" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F190" s="1" t="n">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="G190" s="1" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H190" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I190" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="n">
@@ -5001,19 +4427,16 @@
         <v>0</v>
       </c>
       <c r="F191" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G191" s="1" t="n">
-        <v>1000</v>
+        <v>59.45</v>
       </c>
       <c r="H191" s="1" t="n">
         <v>59.45</v>
       </c>
-      <c r="I191" s="1" t="n">
-        <v>59.45</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="3" t="n">
@@ -5026,29 +4449,26 @@
         <v>0</v>
       </c>
       <c r="F192" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G192" s="1" t="n">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="H192" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="I192" s="1" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3" t="n">
         <v>43334</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>0</v>
+        <v>-1070.05</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>-1070.05</v>
+        <v>0</v>
       </c>
       <c r="F193" s="1" t="n">
         <v>0</v>
@@ -5057,9 +4477,6 @@
         <v>0</v>
       </c>
       <c r="H193" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5083,25 +4500,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5109,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -5126,211 +4543,184 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2060.5</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>-2090</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-2090</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1020</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>-4060</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>-4060</v>
+        <v>3040</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>-3070</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-3070</v>
+        <v>3070</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>3070</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-2800</v>
+        <v>2800</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>-2830</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-2830</v>
+        <v>2830</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>2830</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>-2670</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-2670</v>
+        <v>2670</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>2670</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0</v>
+        <v>-1112.89</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-1112.89</v>
+        <v>-2330</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-2330</v>
+        <v>4390</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>4390</v>
+        <v>122.37</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>122.37</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>122.37</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0</v>
+        <v>-2150.63</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>-2150.63</v>
+        <v>-500</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-500</v>
+        <v>1520</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1520</v>
+        <v>60.65</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>60.65</v>
-      </c>
-      <c r="I9" s="1" t="n">
         <v>60.65</v>
       </c>
     </row>
@@ -5354,25 +4744,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5394,57 +4784,48 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="1" t="n">
-        <v>3080.5</v>
+        <v>-183.02</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>-3263.52</v>
+        <v>-20350</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>-20350</v>
+        <v>20350</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>20350</v>
+        <v>183.02</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>183.02</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>183.02</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="n">
-        <v>3080.5</v>
+        <v>-183.02</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-3263.52</v>
+        <v>-20350</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-20350</v>
+        <v>20350</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>20350</v>
+        <v>183.02</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>183.02</v>
-      </c>
-      <c r="H3" s="1" t="n">
         <v>183.02</v>
       </c>
     </row>
